--- a/FAOdata/FAODicoPAYS.xlsx
+++ b/FAOdata/FAODicoPAYS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Bureau/FAOdata/FAOdataDico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710320DC-8129-48C4-B67B-D327F5D14FEF}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6704AF-846D-4232-8CC9-D91B74F58FE2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
     <sheet name="FAOcodePAYS" sheetId="6" r:id="rId2"/>
     <sheet name="VaParametresNORM" sheetId="8" r:id="rId3"/>
-    <sheet name="Pays" sheetId="9" r:id="rId4"/>
+    <sheet name="PaysFAO" sheetId="10" r:id="rId4"/>
+    <sheet name="Pays" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="1" hidden="1">FAOcodePAYS!$A$1:$F$222</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6273" uniqueCount="636">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2133,7 +2134,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3183,14 +3190,70 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9A34F8C6-6164-4209-8B6B-D3807C32AA5E}" uniqueName="1" name="Code Groupe de pays" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D441E435-84B7-45D6-BC93-5BD92CD0AA40}" uniqueName="2" name="Groupe de pays" queryTableFieldId="2" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{D441E435-84B7-45D6-BC93-5BD92CD0AA40}" uniqueName="2" name="Groupe de pays" queryTableFieldId="2" dataDxfId="62"/>
     <tableColumn id="3" xr3:uid="{27338A7D-5DA5-4092-98B5-8980931A1E56}" uniqueName="3" name="Code Pays" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7D72351A-4C32-4FC7-885D-35AAAC6A36D9}" uniqueName="4" name="Pays" queryTableFieldId="4" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{7D72351A-4C32-4FC7-885D-35AAAC6A36D9}" uniqueName="4" name="Pays" queryTableFieldId="4" dataDxfId="61"/>
     <tableColumn id="5" xr3:uid="{B77A6B9C-98FA-4189-8636-AC62D0E412B8}" uniqueName="5" name="Code M49" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{BE05B644-629A-4B40-BD8D-98793DCF8C25}" uniqueName="6" name="Code ISO2" queryTableFieldId="6" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{9945D25F-C294-4D7D-BF2F-5CC9164B2D9D}" uniqueName="7" name="Code ISO3" queryTableFieldId="7" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{BE05B644-629A-4B40-BD8D-98793DCF8C25}" uniqueName="6" name="Code ISO2" queryTableFieldId="6" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{9945D25F-C294-4D7D-BF2F-5CC9164B2D9D}" uniqueName="7" name="Code ISO3" queryTableFieldId="7" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}" name="Tableau6" displayName="Tableau6" ref="A1:T188" totalsRowShown="0">
+  <autoFilter ref="A1:T188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A137:M180">
+    <sortCondition ref="F1:F188"/>
+  </sortState>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{94A7D542-203B-42F4-8011-C9B15F5C8A28}" name="CodeContinent" dataDxfId="14">
+      <calculatedColumnFormula>LEFT(Tableau6[[#This Row],[Code_ZoneContinent]],2)*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A0E44627-D751-4113-AA16-07483EB01278}" name="continent" dataDxfId="13">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2B0483DF-7EB5-48D4-AFA3-08D683F64CE4}" name="Code_ZoneContinent"/>
+    <tableColumn id="4" xr3:uid="{13A09454-C109-47DA-8B51-6A7A1F544D20}" name="ZoneContinent"/>
+    <tableColumn id="5" xr3:uid="{A2D3E89B-1D86-465D-B8D1-8C77D5434570}" name="Code_Pays"/>
+    <tableColumn id="6" xr3:uid="{DC5EB85A-743E-49BA-933A-26D15DA327FE}" name="Pays"/>
+    <tableColumn id="7" xr3:uid="{85DD6C11-1748-4951-8273-A64881B3F251}" name="idM49"/>
+    <tableColumn id="8" xr3:uid="{AC6081F8-CBCE-4B57-82AA-48F0BDE185D4}" name="AlphaISO2"/>
+    <tableColumn id="9" xr3:uid="{76CBE612-5C44-41EB-8A19-91F19D8B3AFD}" name="AlphaISO3"/>
+    <tableColumn id="10" xr3:uid="{9AAFA52C-DB8D-4858-8381-0DA0D8DB1EF7}" name="CodeUE27" dataDxfId="12">
+      <calculatedColumnFormula array="1">IFERROR(_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],ListeUE27[[#All],[Code_Pays]],ListeUE27[[#All],[Code_UE27]],,0),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{FB994320-9431-4DF2-B9CE-FD57633CC37B}" name="listeUE27" dataDxfId="11">
+      <calculatedColumnFormula>IF(Tableau6[[#This Row],[CodeUE27]]=VaParametresNORM!$A$12,VaParametresNORM!$B$12,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{4D0453C4-6BB2-46DA-B127-6992F68C98B3}" name="CodePMA" dataDxfId="10">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],Tableau8[[#All],[Code Pays]],Tableau8[[#All],[CodePMA]],"  ",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{0EB4B83D-349D-42F1-9DDD-97D677B23459}" name="ListePMA" dataDxfId="9">
+      <calculatedColumnFormula>IF(Tableau6[[#This Row],[CodePMA]]=VaParametresNORM!$A$45,VaParametresNORM!$B$45,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{E186B4AB-D973-496C-8B3B-051EF967A26F}" name="codePVDsansLitoral" dataDxfId="8">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],Tableau9[[#All],[Code Pays]],Tableau9[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{64F5DA4A-8301-4A5E-8692-4F93CA1D0E9A}" name="ListePVDsansLitoral" dataDxfId="7">
+      <calculatedColumnFormula>IF(Tableau6[[#This Row],[codePVDsansLitoral]]=VaParametresNORM!$A$93,VaParametresNORM!$B$93,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{2F91028E-8228-4CCE-960C-26EE822172F7}" name="codeIDV" dataDxfId="6">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[idM49]],Tableau10[[#All],[Code Pays]],Tableau10[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{6246EE9D-34CC-4FC6-9A76-403F2C5BF71E}" name="ListeIVD" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tableau6[[#This Row],[codeIDV]]=VaParametresNORM!$A$125,VaParametresNORM!$B$125," ")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{AB6DCF45-FE3A-4DB4-89D0-6D48BC21B746}" name="code_deficit_Vivrier" dataDxfId="4">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[idM49]],Tableau11[[#All],[Code Pays]],Tableau11[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{42C0AC50-5E69-4DC8-BB2C-C6D2B997919A}" name="Liste_deficit_vivrier" dataDxfId="3">
+      <calculatedColumnFormula>IF(Tableau6[[#This Row],[code_deficit_Vivrier]]=VaParametresNORM!$A$163,VaParametresNORM!$B$163,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{EEB3556B-0CDC-4607-B3C2-27D474DA0759}" name="code_impNet" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3199,42 +3262,42 @@
   <autoFilter ref="A1:J222" xr:uid="{FA70468C-29C0-45C0-BBB2-36DE588FED91}"/>
   <tableColumns count="10">
     <tableColumn id="8" xr3:uid="{61298624-2CAF-4FF7-BCAC-9A577A4DCEA9}" uniqueName="8" name="CodePaysFAO" queryTableFieldId="8"/>
-    <tableColumn id="2" xr3:uid="{5937DB8F-04C6-4716-BA6F-39B7E7048D6C}" uniqueName="2" name="Pays" queryTableFieldId="2" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{5937DB8F-04C6-4716-BA6F-39B7E7048D6C}" uniqueName="2" name="Pays" queryTableFieldId="2" dataDxfId="58"/>
     <tableColumn id="9" xr3:uid="{DF8F5CAF-F277-4C8F-8C05-D5C33E600C2C}" uniqueName="9" name="CodeM49" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{58D160B2-9E03-46EB-98E0-301426D3A2FF}" uniqueName="10" name="CodeAlphaISO2" queryTableFieldId="10" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{38535C32-5A3D-4EA5-8EBC-7BB14867BC9C}" uniqueName="11" name="CodeAlphaISO3" queryTableFieldId="11" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{CFEF12E6-17A1-4EDA-80E4-702CC0F347FC}" uniqueName="12" name="Année_debut" queryTableFieldId="12" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{FCC60E90-2E07-40F6-AD54-D168233252B9}" uniqueName="13" name="Code_Continent" queryTableFieldId="14" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{B405D6ED-B035-4E39-AC61-48AF09089E91}" uniqueName="14" name="Continent" queryTableFieldId="15" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{2A36261E-B2BD-4C89-B67E-22676892C075}" uniqueName="15" name="code_zone1" queryTableFieldId="16" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{35868D4B-315A-44F2-8899-FE62FB413FD6}" uniqueName="16" name="Zone1" queryTableFieldId="17" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{58D160B2-9E03-46EB-98E0-301426D3A2FF}" uniqueName="10" name="CodeAlphaISO2" queryTableFieldId="10" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{38535C32-5A3D-4EA5-8EBC-7BB14867BC9C}" uniqueName="11" name="CodeAlphaISO3" queryTableFieldId="11" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{CFEF12E6-17A1-4EDA-80E4-702CC0F347FC}" uniqueName="12" name="Année_debut" queryTableFieldId="12" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{FCC60E90-2E07-40F6-AD54-D168233252B9}" uniqueName="13" name="Code_Continent" queryTableFieldId="14" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{B405D6ED-B035-4E39-AC61-48AF09089E91}" uniqueName="14" name="Continent" queryTableFieldId="15" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{2A36261E-B2BD-4C89-B67E-22676892C075}" uniqueName="15" name="code_zone1" queryTableFieldId="16" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{35868D4B-315A-44F2-8899-FE62FB413FD6}" uniqueName="16" name="Zone1" queryTableFieldId="17" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FF6ADE87-1765-4EE3-BBDE-5D086EEBBD17}" name="Continent" displayName="Continent" ref="A2:B7" totalsRowShown="0" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FF6ADE87-1765-4EE3-BBDE-5D086EEBBD17}" name="Continent" displayName="Continent" ref="A2:B7" totalsRowShown="0" tableBorderDxfId="50">
   <autoFilter ref="A2:B7" xr:uid="{FF6ADE87-1765-4EE3-BBDE-5D086EEBBD17}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C63B181D-1D08-440D-AB74-1DBEB3F0FC91}" name="NumFAOContinent" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{9DB1969F-73C3-47FC-9A07-A083C0B4532F}" name="Continent" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{C63B181D-1D08-440D-AB74-1DBEB3F0FC91}" name="NumFAOContinent" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{9DB1969F-73C3-47FC-9A07-A083C0B4532F}" name="Continent" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C602BEC2-A2C5-49D3-8509-A66209C98248}" name="ListeUE27" displayName="ListeUE27" ref="A11:G38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C602BEC2-A2C5-49D3-8509-A66209C98248}" name="ListeUE27" displayName="ListeUE27" ref="A11:G38" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A11:G38" xr:uid="{C602BEC2-A2C5-49D3-8509-A66209C98248}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D73BC33-71EA-4974-82A0-AE895CE8AC3C}" name="Code_UE27" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{56007CB1-10EB-4A57-AE37-1DE308AC4C10}" name="Groupe_de_pays" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{2CE6CA71-B2EE-4182-BBBE-30AF7D05A553}" name="Code_Pays" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{1DCBC5E7-26C3-4CCE-9BE7-D60677195BAE}" name="Pays" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{5F7831DD-DCF5-489A-B72E-08B26F58C750}" name="CodeM49" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{0CF3E0E5-EDD7-4773-A80A-B9E582AEE580}" name="CodeAlphaISO2" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{69444749-6B80-41CF-9B5C-0A6BB7ADB0E1}" name="CodeAlphaISO3" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{4D73BC33-71EA-4974-82A0-AE895CE8AC3C}" name="Code_UE27" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{56007CB1-10EB-4A57-AE37-1DE308AC4C10}" name="Groupe_de_pays" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{2CE6CA71-B2EE-4182-BBBE-30AF7D05A553}" name="Code_Pays" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{1DCBC5E7-26C3-4CCE-9BE7-D60677195BAE}" name="Pays" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{5F7831DD-DCF5-489A-B72E-08B26F58C750}" name="CodeM49" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{0CF3E0E5-EDD7-4773-A80A-B9E582AEE580}" name="CodeAlphaISO2" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{69444749-6B80-41CF-9B5C-0A6BB7ADB0E1}" name="CodeAlphaISO3" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3257,16 +3320,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{35553810-FF62-4D11-B2B2-63F137710087}" name="Tableau9" displayName="Tableau9" ref="A92:G122" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{35553810-FF62-4D11-B2B2-63F137710087}" name="Tableau9" displayName="Tableau9" ref="A92:G122" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A92:G122" xr:uid="{35553810-FF62-4D11-B2B2-63F137710087}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A442F63-BF43-40F0-BCBB-555A56BA7F2F}" name="Code Groupe de pays" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A1DEA4DB-3C71-4C24-B7A0-88D81CD84DD8}" name="Groupe de pays" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{04C1DE1A-323A-4E1B-9C97-845B777D92C3}" name="Code Pays" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{16CD8DA0-BED6-4CE1-84D8-DDA69808C3E3}" name="Pays" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6DB09DB9-A74D-4168-82C3-09DFBED95B1D}" name="Code M49" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{15FEF592-E86B-4C95-9BF6-895154AD65C2}" name="Code ISO2" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{84FF81D7-31C7-4029-976A-541808F5362F}" name="Code ISO3" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{0A442F63-BF43-40F0-BCBB-555A56BA7F2F}" name="Code Groupe de pays" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{A1DEA4DB-3C71-4C24-B7A0-88D81CD84DD8}" name="Groupe de pays" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{04C1DE1A-323A-4E1B-9C97-845B777D92C3}" name="Code Pays" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{16CD8DA0-BED6-4CE1-84D8-DDA69808C3E3}" name="Pays" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{6DB09DB9-A74D-4168-82C3-09DFBED95B1D}" name="Code M49" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{15FEF592-E86B-4C95-9BF6-895154AD65C2}" name="Code ISO2" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{84FF81D7-31C7-4029-976A-541808F5362F}" name="Code ISO3" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3289,72 +3352,39 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{497EBED3-51A4-4519-9D15-56823E5DE44D}" name="Tableau11" displayName="Tableau11" ref="A165:G214" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{497EBED3-51A4-4519-9D15-56823E5DE44D}" name="Tableau11" displayName="Tableau11" ref="A165:G214" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A165:G214" xr:uid="{497EBED3-51A4-4519-9D15-56823E5DE44D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{16C56FB9-B813-45F3-B7CF-0C9CE8BF5554}" name="Code Groupe de pays" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{B8C80E63-2E26-4449-9E88-BAC4DC1ABD5E}" name="Groupe de pays" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{C64D36C5-FAE7-4ECD-A589-96567DA1CEF0}" name="Code Pays" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{12F7E66E-C4C9-43D0-AB50-E88E6AA5566E}" name="Pays" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{3819E82A-3791-4ADD-A8FB-3DFE52A03782}" name="Code M49" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E3B5E881-2734-4DCA-95BA-511764E99BB2}" name="Code ISO2" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{B863F57D-F5E2-4638-8C30-4F2E4BC9A59C}" name="Code ISO3" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{16C56FB9-B813-45F3-B7CF-0C9CE8BF5554}" name="Code Groupe de pays" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B8C80E63-2E26-4449-9E88-BAC4DC1ABD5E}" name="Groupe de pays" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C64D36C5-FAE7-4ECD-A589-96567DA1CEF0}" name="Code Pays" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{12F7E66E-C4C9-43D0-AB50-E88E6AA5566E}" name="Pays" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{3819E82A-3791-4ADD-A8FB-3DFE52A03782}" name="Code M49" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{E3B5E881-2734-4DCA-95BA-511764E99BB2}" name="Code ISO2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B863F57D-F5E2-4638-8C30-4F2E4BC9A59C}" name="Code ISO3" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}" name="Tableau6" displayName="Tableau6" ref="A1:T188" totalsRowShown="0">
-  <autoFilter ref="A1:T188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A137:M180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:G188" totalsRowShown="0">
+  <autoFilter ref="A1:G188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
     <sortCondition ref="F1:F188"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{94A7D542-203B-42F4-8011-C9B15F5C8A28}" name="CodeContinent" dataDxfId="12">
-      <calculatedColumnFormula>LEFT(Tableau6[[#This Row],[Code_ZoneContinent]],2)*100</calculatedColumnFormula>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9B6411D5-A3DD-4C60-9032-B615691189DD}" name="CodeContinent" dataDxfId="1">
+      <calculatedColumnFormula>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A0E44627-D751-4113-AA16-07483EB01278}" name="continent" dataDxfId="11">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{B4E8679A-0747-42DA-B5AB-CBE715F025DF}" name="continent" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2B0483DF-7EB5-48D4-AFA3-08D683F64CE4}" name="Code_ZoneContinent"/>
-    <tableColumn id="4" xr3:uid="{13A09454-C109-47DA-8B51-6A7A1F544D20}" name="ZoneContinent"/>
-    <tableColumn id="5" xr3:uid="{A2D3E89B-1D86-465D-B8D1-8C77D5434570}" name="Code_Pays"/>
-    <tableColumn id="6" xr3:uid="{DC5EB85A-743E-49BA-933A-26D15DA327FE}" name="Pays"/>
-    <tableColumn id="7" xr3:uid="{85DD6C11-1748-4951-8273-A64881B3F251}" name="idM49"/>
-    <tableColumn id="8" xr3:uid="{AC6081F8-CBCE-4B57-82AA-48F0BDE185D4}" name="AlphaISO2"/>
-    <tableColumn id="9" xr3:uid="{76CBE612-5C44-41EB-8A19-91F19D8B3AFD}" name="AlphaISO3"/>
-    <tableColumn id="10" xr3:uid="{9AAFA52C-DB8D-4858-8381-0DA0D8DB1EF7}" name="CodeUE27" dataDxfId="10">
-      <calculatedColumnFormula array="1">IFERROR(_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],ListeUE27[[#All],[Code_Pays]],ListeUE27[[#All],[Code_UE27]],,0),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{FB994320-9431-4DF2-B9CE-FD57633CC37B}" name="listeUE27" dataDxfId="9">
-      <calculatedColumnFormula>IF(Tableau6[[#This Row],[CodeUE27]]=VaParametresNORM!$A$12,VaParametresNORM!$B$12,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{4D0453C4-6BB2-46DA-B127-6992F68C98B3}" name="CodePMA" dataDxfId="8">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],Tableau8[[#All],[Code Pays]],Tableau8[[#All],[CodePMA]],"  ",0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{0EB4B83D-349D-42F1-9DDD-97D677B23459}" name="ListePMA" dataDxfId="7">
-      <calculatedColumnFormula>IF(Tableau6[[#This Row],[CodePMA]]=VaParametresNORM!$A$45,VaParametresNORM!$B$45,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{E186B4AB-D973-496C-8B3B-051EF967A26F}" name="codePVDsansLitoral" dataDxfId="6">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[Code_Pays]],Tableau9[[#All],[Code Pays]],Tableau9[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{64F5DA4A-8301-4A5E-8692-4F93CA1D0E9A}" name="ListePVDsansLitoral" dataDxfId="5">
-      <calculatedColumnFormula>IF(Tableau6[[#This Row],[codePVDsansLitoral]]=VaParametresNORM!$A$93,VaParametresNORM!$B$93,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{2F91028E-8228-4CCE-960C-26EE822172F7}" name="codeIDV" dataDxfId="4">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[idM49]],Tableau10[[#All],[Code Pays]],Tableau10[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{6246EE9D-34CC-4FC6-9A76-403F2C5BF71E}" name="ListeIVD" dataDxfId="3">
-      <calculatedColumnFormula>IF(Tableau6[[#This Row],[codeIDV]]=VaParametresNORM!$A$125,VaParametresNORM!$B$125," ")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{AB6DCF45-FE3A-4DB4-89D0-6D48BC21B746}" name="code_deficit_Vivrier" dataDxfId="2">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Tableau6[[#This Row],[idM49]],Tableau11[[#All],[Code Pays]],Tableau11[[#All],[Code Groupe de pays]]," ",0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{42C0AC50-5E69-4DC8-BB2C-C6D2B997919A}" name="Liste_deficit_vivrier" dataDxfId="1">
-      <calculatedColumnFormula>IF(Tableau6[[#This Row],[code_deficit_Vivrier]]=VaParametresNORM!$A$163,VaParametresNORM!$B$163,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{EEB3556B-0CDC-4607-B3C2-27D474DA0759}" name="code_impNet" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FA405C31-E04B-45BF-89FE-990D738616E6}" name="Code_ZoneContinent"/>
+    <tableColumn id="4" xr3:uid="{AC31C2E6-64A1-4FDB-9F43-05BCDA34A648}" name="ZoneContinent"/>
+    <tableColumn id="5" xr3:uid="{89972DBE-5C94-4D8C-8A9D-573B1D76F030}" name="Code_Pays"/>
+    <tableColumn id="6" xr3:uid="{3D3FA1C4-9F97-4313-B031-BD9B6A8D5970}" name="Pays"/>
+    <tableColumn id="9" xr3:uid="{D5A162CB-649B-4397-B079-DC2AC98167DA}" name="AlphaISO3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32205,10 +32235,4735 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
+  <dimension ref="A1:G188"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C2">
+        <v>5104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C3">
+        <v>5104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C4">
+        <v>5104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C5">
+        <v>5104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C6">
+        <v>5104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C7">
+        <v>5102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C8">
+        <v>5102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C9">
+        <v>5102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C10">
+        <v>5102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C11">
+        <v>5102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C12">
+        <v>5102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C13">
+        <v>5102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13">
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C14">
+        <v>5102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C15">
+        <v>5105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C16">
+        <v>5105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C17">
+        <v>5105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C18">
+        <v>5105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C19">
+        <v>5105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B20" t="str" cm="1">
+        <f t="array" ref="B20">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C20">
+        <v>5105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C21">
+        <v>5105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B22" t="str" cm="1">
+        <f t="array" ref="B22">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C22">
+        <v>5105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C23">
+        <v>5105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B24" t="str" cm="1">
+        <f t="array" ref="B24">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C24">
+        <v>5105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B25" t="str" cm="1">
+        <f t="array" ref="B25">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C25">
+        <v>5105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B26" t="str" cm="1">
+        <f t="array" ref="B26">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C26">
+        <v>5105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B27" t="str" cm="1">
+        <f t="array" ref="B27">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C27">
+        <v>5105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C28">
+        <v>5105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C29">
+        <v>5105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" ref="B30">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C30">
+        <v>5105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C31">
+        <v>5101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C32">
+        <v>5101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" ref="B33">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C33">
+        <v>5101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B34" t="str" cm="1">
+        <f t="array" ref="B34">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C34">
+        <v>5101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34">
+        <v>238</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B35" t="str" cm="1">
+        <f t="array" ref="B35">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C35">
+        <v>5101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B36" t="str" cm="1">
+        <f t="array" ref="B36">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C36">
+        <v>5101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B37" t="str" cm="1">
+        <f t="array" ref="B37">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C37">
+        <v>5101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B38" t="str" cm="1">
+        <f t="array" ref="B38">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C38">
+        <v>5101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B39" t="str" cm="1">
+        <f t="array" ref="B39">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C39">
+        <v>5101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" ref="B40">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C40">
+        <v>5101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B41" t="str" cm="1">
+        <f t="array" ref="B41">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C41">
+        <v>5101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41">
+        <v>226</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" ref="B42">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C42">
+        <v>5101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42">
+        <v>215</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" ref="B43">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C43">
+        <v>5101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43">
+        <v>184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" ref="B44">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C44">
+        <v>5101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" ref="B45">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C45">
+        <v>5101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45">
+        <v>251</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B46" t="str" cm="1">
+        <f t="array" ref="B46">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C46">
+        <v>5101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" ref="B47">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C47">
+        <v>5103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B48" t="str" cm="1">
+        <f t="array" ref="B48">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C48">
+        <v>5103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" ref="B49">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C49">
+        <v>5103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" ref="B50">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C50">
+        <v>5103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" ref="B51">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C51">
+        <v>5103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51">
+        <v>276</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B52" t="str" cm="1">
+        <f t="array" ref="B52">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C52">
+        <v>5103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52">
+        <v>222</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B53" t="str" cm="1">
+        <f t="array" ref="B53">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C53">
+        <v>5204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B54" t="str" cm="1">
+        <f t="array" ref="B54">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C54">
+        <v>5204</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B55" t="str" cm="1">
+        <f t="array" ref="B55">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C55">
+        <v>5204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B56" t="str" cm="1">
+        <f t="array" ref="B56">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C56">
+        <v>5204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B57" t="str" cm="1">
+        <f t="array" ref="B57">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C57">
+        <v>5204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B58" t="str" cm="1">
+        <f t="array" ref="B58">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C58">
+        <v>5204</v>
+      </c>
+      <c r="D58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B59" t="str" cm="1">
+        <f t="array" ref="B59">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C59">
+        <v>5204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B60" t="str" cm="1">
+        <f t="array" ref="B60">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C60">
+        <v>5204</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" ref="B61">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C61">
+        <v>5207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B62" t="str" cm="1">
+        <f t="array" ref="B62">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C62">
+        <v>5207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B63" t="str" cm="1">
+        <f t="array" ref="B63">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C63">
+        <v>5207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B64" t="str" cm="1">
+        <f t="array" ref="B64">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C64">
+        <v>5207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B65" t="str" cm="1">
+        <f t="array" ref="B65">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C65">
+        <v>5207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B66" t="str" cm="1">
+        <f t="array" ref="B66">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C66">
+        <v>5207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66">
+        <v>58</v>
+      </c>
+      <c r="F66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B67" t="str" cm="1">
+        <f t="array" ref="B67">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C67">
+        <v>5207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67">
+        <v>91</v>
+      </c>
+      <c r="F67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B68" t="str" cm="1">
+        <f t="array" ref="B68">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C68">
+        <v>5207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B69" t="str" cm="1">
+        <f t="array" ref="B69">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C69">
+        <v>5207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69">
+        <v>170</v>
+      </c>
+      <c r="F69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B70" t="str" cm="1">
+        <f t="array" ref="B70">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C70">
+        <v>5207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B71" t="str" cm="1">
+        <f t="array" ref="B71">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C71">
+        <v>5207</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B72" t="str" cm="1">
+        <f t="array" ref="B72">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C72">
+        <v>5207</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72">
+        <v>236</v>
+      </c>
+      <c r="F72" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B73" t="str" cm="1">
+        <f t="array" ref="B73">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C73">
+        <v>5203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>228</v>
+      </c>
+      <c r="G73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B74" t="str" cm="1">
+        <f t="array" ref="B74">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C74">
+        <v>5203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74">
+        <v>231</v>
+      </c>
+      <c r="F74" t="s">
+        <v>231</v>
+      </c>
+      <c r="G74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B75" t="str" cm="1">
+        <f t="array" ref="B75">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C75">
+        <v>5301</v>
+      </c>
+      <c r="D75" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75">
+        <v>108</v>
+      </c>
+      <c r="F75" t="s">
+        <v>339</v>
+      </c>
+      <c r="G75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B76" t="str" cm="1">
+        <f t="array" ref="B76">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C76">
+        <v>5301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76">
+        <v>113</v>
+      </c>
+      <c r="F76" t="s">
+        <v>342</v>
+      </c>
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B77" t="str" cm="1">
+        <f t="array" ref="B77">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C77">
+        <v>5301</v>
+      </c>
+      <c r="D77" t="s">
+        <v>414</v>
+      </c>
+      <c r="E77">
+        <v>235</v>
+      </c>
+      <c r="F77" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B78" t="str" cm="1">
+        <f t="array" ref="B78">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C78">
+        <v>5301</v>
+      </c>
+      <c r="D78" t="s">
+        <v>414</v>
+      </c>
+      <c r="E78">
+        <v>208</v>
+      </c>
+      <c r="F78" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B79" t="str" cm="1">
+        <f t="array" ref="B79">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C79">
+        <v>5301</v>
+      </c>
+      <c r="D79" t="s">
+        <v>414</v>
+      </c>
+      <c r="E79">
+        <v>213</v>
+      </c>
+      <c r="F79" t="s">
+        <v>402</v>
+      </c>
+      <c r="G79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B80" t="str" cm="1">
+        <f t="array" ref="B80">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C80">
+        <v>5304</v>
+      </c>
+      <c r="D80" t="s">
+        <v>415</v>
+      </c>
+      <c r="E80">
+        <v>115</v>
+      </c>
+      <c r="F80" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B81" t="str" cm="1">
+        <f t="array" ref="B81">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C81">
+        <v>5304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81">
+        <v>101</v>
+      </c>
+      <c r="F81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B82" t="str" cm="1">
+        <f t="array" ref="B82">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C82">
+        <v>5304</v>
+      </c>
+      <c r="D82" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B83" t="str" cm="1">
+        <f t="array" ref="B83">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C83">
+        <v>5304</v>
+      </c>
+      <c r="D83" t="s">
+        <v>415</v>
+      </c>
+      <c r="E83">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B84" t="str" cm="1">
+        <f t="array" ref="B84">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C84">
+        <v>5304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>415</v>
+      </c>
+      <c r="E84">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>375</v>
+      </c>
+      <c r="G84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B85" t="str" cm="1">
+        <f t="array" ref="B85">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C85">
+        <v>5304</v>
+      </c>
+      <c r="D85" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B86" t="str" cm="1">
+        <f t="array" ref="B86">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C86">
+        <v>5304</v>
+      </c>
+      <c r="D86" t="s">
+        <v>415</v>
+      </c>
+      <c r="E86">
+        <v>216</v>
+      </c>
+      <c r="F86" t="s">
+        <v>396</v>
+      </c>
+      <c r="G86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B87" t="str" cm="1">
+        <f t="array" ref="B87">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C87">
+        <v>5304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E87">
+        <v>176</v>
+      </c>
+      <c r="F87" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B88" t="str" cm="1">
+        <f t="array" ref="B88">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C88">
+        <v>5304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>415</v>
+      </c>
+      <c r="E88">
+        <v>237</v>
+      </c>
+      <c r="F88" t="s">
+        <v>408</v>
+      </c>
+      <c r="G88" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B89" t="str" cm="1">
+        <f t="array" ref="B89">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C89">
+        <v>5303</v>
+      </c>
+      <c r="D89" t="s">
+        <v>416</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B90" t="str" cm="1">
+        <f t="array" ref="B90">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C90">
+        <v>5303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>416</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>290</v>
+      </c>
+      <c r="G90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B91" t="str" cm="1">
+        <f t="array" ref="B91">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C91">
+        <v>5303</v>
+      </c>
+      <c r="D91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>318</v>
+      </c>
+      <c r="G91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B92" t="str" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C92">
+        <v>5303</v>
+      </c>
+      <c r="D92" t="s">
+        <v>416</v>
+      </c>
+      <c r="E92">
+        <v>102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>324</v>
+      </c>
+      <c r="G92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B93" t="str" cm="1">
+        <f t="array" ref="B93">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C93">
+        <v>5303</v>
+      </c>
+      <c r="D93" t="s">
+        <v>416</v>
+      </c>
+      <c r="E93">
+        <v>132</v>
+      </c>
+      <c r="F93" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B94" t="str" cm="1">
+        <f t="array" ref="B94">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C94">
+        <v>5303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94">
+        <v>149</v>
+      </c>
+      <c r="F94" t="s">
+        <v>363</v>
+      </c>
+      <c r="G94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B95" t="str" cm="1">
+        <f t="array" ref="B95">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C95">
+        <v>5303</v>
+      </c>
+      <c r="D95" t="s">
+        <v>416</v>
+      </c>
+      <c r="E95">
+        <v>165</v>
+      </c>
+      <c r="F95" t="s">
+        <v>372</v>
+      </c>
+      <c r="G95" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B96" t="str" cm="1">
+        <f t="array" ref="B96">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C96">
+        <v>5303</v>
+      </c>
+      <c r="D96" t="s">
+        <v>416</v>
+      </c>
+      <c r="E96">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B97" t="str" cm="1">
+        <f t="array" ref="B97">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C97">
+        <v>5305</v>
+      </c>
+      <c r="D97" t="s">
+        <v>417</v>
+      </c>
+      <c r="E97">
+        <v>194</v>
+      </c>
+      <c r="F97" t="s">
+        <v>281</v>
+      </c>
+      <c r="G97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B98" t="str" cm="1">
+        <f t="array" ref="B98">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C98">
+        <v>5305</v>
+      </c>
+      <c r="D98" t="s">
+        <v>417</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B99" t="str" cm="1">
+        <f t="array" ref="B99">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C99">
+        <v>5305</v>
+      </c>
+      <c r="D99" t="s">
+        <v>417</v>
+      </c>
+      <c r="E99">
+        <v>52</v>
+      </c>
+      <c r="F99" t="s">
+        <v>287</v>
+      </c>
+      <c r="G99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B100" t="str" cm="1">
+        <f t="array" ref="B100">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C100">
+        <v>5305</v>
+      </c>
+      <c r="D100" t="s">
+        <v>417</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
+        <v>309</v>
+      </c>
+      <c r="G100" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B101" t="str" cm="1">
+        <f t="array" ref="B101">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C101">
+        <v>5305</v>
+      </c>
+      <c r="D101" t="s">
+        <v>417</v>
+      </c>
+      <c r="E101">
+        <v>225</v>
+      </c>
+      <c r="F101" t="s">
+        <v>312</v>
+      </c>
+      <c r="G101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B102" t="str" cm="1">
+        <f t="array" ref="B102">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C102">
+        <v>5305</v>
+      </c>
+      <c r="D102" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102">
+        <v>73</v>
+      </c>
+      <c r="F102" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B103" t="str" cm="1">
+        <f t="array" ref="B103">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C103">
+        <v>5305</v>
+      </c>
+      <c r="D103" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103">
+        <v>103</v>
+      </c>
+      <c r="F103" t="s">
+        <v>327</v>
+      </c>
+      <c r="G103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B104" t="str" cm="1">
+        <f t="array" ref="B104">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C104">
+        <v>5305</v>
+      </c>
+      <c r="D104" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104">
+        <v>105</v>
+      </c>
+      <c r="F104" t="s">
+        <v>330</v>
+      </c>
+      <c r="G104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B105" t="str" cm="1">
+        <f t="array" ref="B105">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C105">
+        <v>5305</v>
+      </c>
+      <c r="D105" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105">
+        <v>112</v>
+      </c>
+      <c r="F105" t="s">
+        <v>336</v>
+      </c>
+      <c r="G105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B106" t="str" cm="1">
+        <f t="array" ref="B106">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C106">
+        <v>5305</v>
+      </c>
+      <c r="D106" t="s">
+        <v>417</v>
+      </c>
+      <c r="E106">
+        <v>118</v>
+      </c>
+      <c r="F106" t="s">
+        <v>345</v>
+      </c>
+      <c r="G106" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B107" t="str" cm="1">
+        <f t="array" ref="B107">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C107">
+        <v>5305</v>
+      </c>
+      <c r="D107" t="s">
+        <v>417</v>
+      </c>
+      <c r="E107">
+        <v>121</v>
+      </c>
+      <c r="F107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B108" t="str" cm="1">
+        <f t="array" ref="B108">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C108">
+        <v>5305</v>
+      </c>
+      <c r="D108" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108">
+        <v>221</v>
+      </c>
+      <c r="F108" t="s">
+        <v>366</v>
+      </c>
+      <c r="G108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B109" t="str" cm="1">
+        <f t="array" ref="B109">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C109">
+        <v>5305</v>
+      </c>
+      <c r="D109" t="s">
+        <v>417</v>
+      </c>
+      <c r="E109">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
+        <v>378</v>
+      </c>
+      <c r="G109" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B110" t="str" cm="1">
+        <f t="array" ref="B110">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C110">
+        <v>5305</v>
+      </c>
+      <c r="D110" t="s">
+        <v>417</v>
+      </c>
+      <c r="E110">
+        <v>223</v>
+      </c>
+      <c r="F110" t="s">
+        <v>405</v>
+      </c>
+      <c r="G110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B111" t="str" cm="1">
+        <f t="array" ref="B111">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C111">
+        <v>5305</v>
+      </c>
+      <c r="D111" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111">
+        <v>249</v>
+      </c>
+      <c r="F111" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B112" t="str" cm="1">
+        <f t="array" ref="B112">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C112">
+        <v>5302</v>
+      </c>
+      <c r="D112" t="s">
+        <v>418</v>
+      </c>
+      <c r="E112">
+        <v>351</v>
+      </c>
+      <c r="F112" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B113" t="str" cm="1">
+        <f t="array" ref="B113">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C113">
+        <v>5302</v>
+      </c>
+      <c r="D113" t="s">
+        <v>418</v>
+      </c>
+      <c r="E113">
+        <v>96</v>
+      </c>
+      <c r="F113" t="s">
+        <v>298</v>
+      </c>
+      <c r="G113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B114" t="str" cm="1">
+        <f t="array" ref="B114">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C114">
+        <v>5302</v>
+      </c>
+      <c r="D114" t="s">
+        <v>418</v>
+      </c>
+      <c r="E114">
+        <v>128</v>
+      </c>
+      <c r="F114" t="s">
+        <v>301</v>
+      </c>
+      <c r="G114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B115" t="str" cm="1">
+        <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C115">
+        <v>5302</v>
+      </c>
+      <c r="D115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E115">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s">
+        <v>304</v>
+      </c>
+      <c r="G115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B116" t="str" cm="1">
+        <f t="array" ref="B116">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C116">
+        <v>5302</v>
+      </c>
+      <c r="D116" t="s">
+        <v>418</v>
+      </c>
+      <c r="E116">
+        <v>214</v>
+      </c>
+      <c r="F116" t="s">
+        <v>306</v>
+      </c>
+      <c r="G116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B117" t="str" cm="1">
+        <f t="array" ref="B117">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C117">
+        <v>5302</v>
+      </c>
+      <c r="D117" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117">
+        <v>110</v>
+      </c>
+      <c r="F117" t="s">
+        <v>333</v>
+      </c>
+      <c r="G117" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B118" t="str" cm="1">
+        <f t="array" ref="B118">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C118">
+        <v>5302</v>
+      </c>
+      <c r="D118" t="s">
+        <v>418</v>
+      </c>
+      <c r="E118">
+        <v>141</v>
+      </c>
+      <c r="F118" t="s">
+        <v>357</v>
+      </c>
+      <c r="G118" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B119" t="str" cm="1">
+        <f t="array" ref="B119">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C119">
+        <v>5302</v>
+      </c>
+      <c r="D119" t="s">
+        <v>418</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+      <c r="F119" t="s">
+        <v>381</v>
+      </c>
+      <c r="G119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B120" t="str" cm="1">
+        <f t="array" ref="B120">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C120">
+        <v>5302</v>
+      </c>
+      <c r="D120" t="s">
+        <v>418</v>
+      </c>
+      <c r="E120">
+        <v>116</v>
+      </c>
+      <c r="F120" t="s">
+        <v>387</v>
+      </c>
+      <c r="G120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B121" t="str" cm="1">
+        <f t="array" ref="B121">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C121">
+        <v>5501</v>
+      </c>
+      <c r="D121" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>420</v>
+      </c>
+      <c r="G121" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B122" t="str" cm="1">
+        <f t="array" ref="B122">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C122">
+        <v>5501</v>
+      </c>
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122">
+        <v>156</v>
+      </c>
+      <c r="F122" t="s">
+        <v>423</v>
+      </c>
+      <c r="G122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B123" t="str" cm="1">
+        <f t="array" ref="B123">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C123">
+        <v>5206</v>
+      </c>
+      <c r="D123" t="s">
+        <v>426</v>
+      </c>
+      <c r="E123">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>235</v>
+      </c>
+      <c r="G123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B124" t="str" cm="1">
+        <f t="array" ref="B124">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C124">
+        <v>5206</v>
+      </c>
+      <c r="D124" t="s">
+        <v>426</v>
+      </c>
+      <c r="E124">
+        <v>151</v>
+      </c>
+      <c r="F124" t="s">
+        <v>238</v>
+      </c>
+      <c r="G124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B125" t="str" cm="1">
+        <f t="array" ref="B125">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C125">
+        <v>5206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>426</v>
+      </c>
+      <c r="E125">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>241</v>
+      </c>
+      <c r="G125" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B126" t="str" cm="1">
+        <f t="array" ref="B126">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C126">
+        <v>5206</v>
+      </c>
+      <c r="D126" t="s">
+        <v>426</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B127" t="str" cm="1">
+        <f t="array" ref="B127">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C127">
+        <v>5206</v>
+      </c>
+      <c r="D127" t="s">
+        <v>426</v>
+      </c>
+      <c r="E127">
+        <v>49</v>
+      </c>
+      <c r="F127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B128" t="str" cm="1">
+        <f t="array" ref="B128">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C128">
+        <v>5206</v>
+      </c>
+      <c r="D128" t="s">
+        <v>426</v>
+      </c>
+      <c r="E128">
+        <v>55</v>
+      </c>
+      <c r="F128" t="s">
+        <v>250</v>
+      </c>
+      <c r="G128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B129" t="str" cm="1">
+        <f t="array" ref="B129">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C129">
+        <v>5206</v>
+      </c>
+      <c r="D129" t="s">
+        <v>426</v>
+      </c>
+      <c r="E129">
+        <v>86</v>
+      </c>
+      <c r="F129" t="s">
+        <v>253</v>
+      </c>
+      <c r="G129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B130" t="str" cm="1">
+        <f t="array" ref="B130">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C130">
+        <v>5206</v>
+      </c>
+      <c r="D130" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130">
+        <v>93</v>
+      </c>
+      <c r="F130" t="s">
+        <v>256</v>
+      </c>
+      <c r="G130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B131" t="str" cm="1">
+        <f t="array" ref="B131">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C131">
+        <v>5206</v>
+      </c>
+      <c r="D131" t="s">
+        <v>426</v>
+      </c>
+      <c r="E131">
+        <v>109</v>
+      </c>
+      <c r="F131" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B132" t="str" cm="1">
+        <f t="array" ref="B132">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C132">
+        <v>5206</v>
+      </c>
+      <c r="D132" t="s">
+        <v>426</v>
+      </c>
+      <c r="E132">
+        <v>56</v>
+      </c>
+      <c r="F132" t="s">
+        <v>262</v>
+      </c>
+      <c r="G132" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B133" t="str" cm="1">
+        <f t="array" ref="B133">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C133">
+        <v>5206</v>
+      </c>
+      <c r="D133" t="s">
+        <v>426</v>
+      </c>
+      <c r="E133">
+        <v>189</v>
+      </c>
+      <c r="F133" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B134" t="str" cm="1">
+        <f t="array" ref="B134">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C134">
+        <v>5206</v>
+      </c>
+      <c r="D134" t="s">
+        <v>426</v>
+      </c>
+      <c r="E134">
+        <v>188</v>
+      </c>
+      <c r="F134" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B135" t="str" cm="1">
+        <f t="array" ref="B135">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C135">
+        <v>5206</v>
+      </c>
+      <c r="D135" t="s">
+        <v>426</v>
+      </c>
+      <c r="E135">
+        <v>191</v>
+      </c>
+      <c r="F135" t="s">
+        <v>271</v>
+      </c>
+      <c r="G135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B136" t="str" cm="1">
+        <f t="array" ref="B136">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C136">
+        <v>5206</v>
+      </c>
+      <c r="D136" t="s">
+        <v>426</v>
+      </c>
+      <c r="E136">
+        <v>220</v>
+      </c>
+      <c r="F136" t="s">
+        <v>274</v>
+      </c>
+      <c r="G136" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B137" t="str" cm="1">
+        <f t="array" ref="B137">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C137">
+        <v>5403</v>
+      </c>
+      <c r="D137" t="s">
+        <v>552</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>428</v>
+      </c>
+      <c r="G137" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B138" t="str" cm="1">
+        <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C138">
+        <v>5404</v>
+      </c>
+      <c r="D138" t="s">
+        <v>553</v>
+      </c>
+      <c r="E138">
+        <v>79</v>
+      </c>
+      <c r="F138" t="s">
+        <v>431</v>
+      </c>
+      <c r="G138" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B139" t="str" cm="1">
+        <f t="array" ref="B139">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C139">
+        <v>5404</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+      <c r="E139">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>434</v>
+      </c>
+      <c r="G139" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B140" t="str" cm="1">
+        <f t="array" ref="B140">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C140">
+        <v>5401</v>
+      </c>
+      <c r="D140" t="s">
+        <v>554</v>
+      </c>
+      <c r="E140">
+        <v>57</v>
+      </c>
+      <c r="F140" t="s">
+        <v>437</v>
+      </c>
+      <c r="G140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B141" t="str" cm="1">
+        <f t="array" ref="B141">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C141">
+        <v>5404</v>
+      </c>
+      <c r="D141" t="s">
+        <v>553</v>
+      </c>
+      <c r="E141">
+        <v>255</v>
+      </c>
+      <c r="F141" t="s">
+        <v>440</v>
+      </c>
+      <c r="G141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B142" t="str" cm="1">
+        <f t="array" ref="B142">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C142">
+        <v>5404</v>
+      </c>
+      <c r="D142" t="s">
+        <v>553</v>
+      </c>
+      <c r="E142">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>443</v>
+      </c>
+      <c r="G142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B143" t="str" cm="1">
+        <f t="array" ref="B143">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C143">
+        <v>5403</v>
+      </c>
+      <c r="D143" t="s">
+        <v>552</v>
+      </c>
+      <c r="E143">
+        <v>80</v>
+      </c>
+      <c r="F143" t="s">
+        <v>444</v>
+      </c>
+      <c r="G143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B144" t="str" cm="1">
+        <f t="array" ref="B144">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C144">
+        <v>5401</v>
+      </c>
+      <c r="D144" t="s">
+        <v>554</v>
+      </c>
+      <c r="E144">
+        <v>27</v>
+      </c>
+      <c r="F144" t="s">
+        <v>447</v>
+      </c>
+      <c r="G144" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B145" t="str" cm="1">
+        <f t="array" ref="B145">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C145">
+        <v>5403</v>
+      </c>
+      <c r="D145" t="s">
+        <v>552</v>
+      </c>
+      <c r="E145">
+        <v>98</v>
+      </c>
+      <c r="F145" t="s">
+        <v>450</v>
+      </c>
+      <c r="G145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B146" t="str" cm="1">
+        <f t="array" ref="B146">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C146">
+        <v>5402</v>
+      </c>
+      <c r="D146" t="s">
+        <v>555</v>
+      </c>
+      <c r="E146">
+        <v>54</v>
+      </c>
+      <c r="F146" t="s">
+        <v>453</v>
+      </c>
+      <c r="G146" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B147" t="str" cm="1">
+        <f t="array" ref="B147">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C147">
+        <v>5403</v>
+      </c>
+      <c r="D147" t="s">
+        <v>552</v>
+      </c>
+      <c r="E147">
+        <v>203</v>
+      </c>
+      <c r="F147" t="s">
+        <v>456</v>
+      </c>
+      <c r="G147" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B148" t="str" cm="1">
+        <f t="array" ref="B148">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C148">
+        <v>5402</v>
+      </c>
+      <c r="D148" t="s">
+        <v>555</v>
+      </c>
+      <c r="E148">
+        <v>63</v>
+      </c>
+      <c r="F148" t="s">
+        <v>459</v>
+      </c>
+      <c r="G148" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B149" t="str" cm="1">
+        <f t="array" ref="B149">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C149">
+        <v>5401</v>
+      </c>
+      <c r="D149" t="s">
+        <v>554</v>
+      </c>
+      <c r="E149">
+        <v>185</v>
+      </c>
+      <c r="F149" t="s">
+        <v>462</v>
+      </c>
+      <c r="G149" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B150" t="str" cm="1">
+        <f t="array" ref="B150">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C150">
+        <v>5402</v>
+      </c>
+      <c r="D150" t="s">
+        <v>555</v>
+      </c>
+      <c r="E150">
+        <v>67</v>
+      </c>
+      <c r="F150" t="s">
+        <v>465</v>
+      </c>
+      <c r="G150" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B151" t="str" cm="1">
+        <f t="array" ref="B151">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C151">
+        <v>5404</v>
+      </c>
+      <c r="D151" t="s">
+        <v>553</v>
+      </c>
+      <c r="E151">
+        <v>68</v>
+      </c>
+      <c r="F151" t="s">
+        <v>468</v>
+      </c>
+      <c r="G151" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B152" t="str" cm="1">
+        <f t="array" ref="B152">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C152">
+        <v>5403</v>
+      </c>
+      <c r="D152" t="s">
+        <v>552</v>
+      </c>
+      <c r="E152">
+        <v>84</v>
+      </c>
+      <c r="F152" t="s">
+        <v>471</v>
+      </c>
+      <c r="G152" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B153" t="str" cm="1">
+        <f t="array" ref="B153">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C153">
+        <v>5401</v>
+      </c>
+      <c r="D153" t="s">
+        <v>554</v>
+      </c>
+      <c r="E153">
+        <v>97</v>
+      </c>
+      <c r="F153" t="s">
+        <v>474</v>
+      </c>
+      <c r="G153" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B154" t="str" cm="1">
+        <f t="array" ref="B154">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C154">
+        <v>5402</v>
+      </c>
+      <c r="D154" t="s">
+        <v>555</v>
+      </c>
+      <c r="E154">
+        <v>104</v>
+      </c>
+      <c r="F154" t="s">
+        <v>477</v>
+      </c>
+      <c r="G154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B155" t="str" cm="1">
+        <f t="array" ref="B155">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C155">
+        <v>5402</v>
+      </c>
+      <c r="D155" t="s">
+        <v>555</v>
+      </c>
+      <c r="E155">
+        <v>99</v>
+      </c>
+      <c r="F155" t="s">
+        <v>480</v>
+      </c>
+      <c r="G155" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B156" t="str" cm="1">
+        <f t="array" ref="B156">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C156">
+        <v>5403</v>
+      </c>
+      <c r="D156" t="s">
+        <v>552</v>
+      </c>
+      <c r="E156">
+        <v>106</v>
+      </c>
+      <c r="F156" t="s">
+        <v>483</v>
+      </c>
+      <c r="G156" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B157" t="str" cm="1">
+        <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C157">
+        <v>5402</v>
+      </c>
+      <c r="D157" t="s">
+        <v>555</v>
+      </c>
+      <c r="E157">
+        <v>119</v>
+      </c>
+      <c r="F157" t="s">
+        <v>486</v>
+      </c>
+      <c r="G157" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B158" t="str" cm="1">
+        <f t="array" ref="B158">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C158">
+        <v>5402</v>
+      </c>
+      <c r="D158" t="s">
+        <v>555</v>
+      </c>
+      <c r="E158">
+        <v>126</v>
+      </c>
+      <c r="F158" t="s">
+        <v>489</v>
+      </c>
+      <c r="G158" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B159" t="str" cm="1">
+        <f t="array" ref="B159">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C159">
+        <v>5404</v>
+      </c>
+      <c r="D159" t="s">
+        <v>553</v>
+      </c>
+      <c r="E159">
+        <v>256</v>
+      </c>
+      <c r="F159" t="s">
+        <v>492</v>
+      </c>
+      <c r="G159" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B160" t="str" cm="1">
+        <f t="array" ref="B160">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C160">
+        <v>5403</v>
+      </c>
+      <c r="D160" t="s">
+        <v>552</v>
+      </c>
+      <c r="E160">
+        <v>154</v>
+      </c>
+      <c r="F160" t="s">
+        <v>495</v>
+      </c>
+      <c r="G160" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B161" t="str" cm="1">
+        <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C161">
+        <v>5403</v>
+      </c>
+      <c r="D161" t="s">
+        <v>552</v>
+      </c>
+      <c r="E161">
+        <v>134</v>
+      </c>
+      <c r="F161" t="s">
+        <v>498</v>
+      </c>
+      <c r="G161" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B162" t="str" cm="1">
+        <f t="array" ref="B162">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C162">
+        <v>5403</v>
+      </c>
+      <c r="D162" t="s">
+        <v>552</v>
+      </c>
+      <c r="E162">
+        <v>273</v>
+      </c>
+      <c r="F162" t="s">
+        <v>501</v>
+      </c>
+      <c r="G162" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B163" t="str" cm="1">
+        <f t="array" ref="B163">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C163">
+        <v>5402</v>
+      </c>
+      <c r="D163" t="s">
+        <v>555</v>
+      </c>
+      <c r="E163">
+        <v>162</v>
+      </c>
+      <c r="F163" t="s">
+        <v>504</v>
+      </c>
+      <c r="G163" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B164" t="str" cm="1">
+        <f t="array" ref="B164">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C164">
+        <v>5404</v>
+      </c>
+      <c r="D164" t="s">
+        <v>553</v>
+      </c>
+      <c r="E164">
+        <v>150</v>
+      </c>
+      <c r="F164" t="s">
+        <v>507</v>
+      </c>
+      <c r="G164" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B165" t="str" cm="1">
+        <f t="array" ref="B165">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C165">
+        <v>5401</v>
+      </c>
+      <c r="D165" t="s">
+        <v>554</v>
+      </c>
+      <c r="E165">
+        <v>173</v>
+      </c>
+      <c r="F165" t="s">
+        <v>510</v>
+      </c>
+      <c r="G165" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B166" t="str" cm="1">
+        <f t="array" ref="B166">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C166">
+        <v>5403</v>
+      </c>
+      <c r="D166" t="s">
+        <v>552</v>
+      </c>
+      <c r="E166">
+        <v>174</v>
+      </c>
+      <c r="F166" t="s">
+        <v>513</v>
+      </c>
+      <c r="G166" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B167" t="str" cm="1">
+        <f t="array" ref="B167">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C167">
+        <v>5401</v>
+      </c>
+      <c r="D167" t="s">
+        <v>554</v>
+      </c>
+      <c r="E167">
+        <v>146</v>
+      </c>
+      <c r="F167" t="s">
+        <v>516</v>
+      </c>
+      <c r="G167" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B168" t="str" cm="1">
+        <f t="array" ref="B168">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C168">
+        <v>5403</v>
+      </c>
+      <c r="D168" t="s">
+        <v>552</v>
+      </c>
+      <c r="E168">
+        <v>248</v>
+      </c>
+      <c r="F168" t="s">
+        <v>519</v>
+      </c>
+      <c r="G168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B169" t="str" cm="1">
+        <f t="array" ref="B169">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C169">
+        <v>5401</v>
+      </c>
+      <c r="D169" t="s">
+        <v>554</v>
+      </c>
+      <c r="E169">
+        <v>183</v>
+      </c>
+      <c r="F169" t="s">
+        <v>520</v>
+      </c>
+      <c r="G169" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B170" t="str" cm="1">
+        <f t="array" ref="B170">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C170">
+        <v>5402</v>
+      </c>
+      <c r="D170" t="s">
+        <v>555</v>
+      </c>
+      <c r="E170">
+        <v>229</v>
+      </c>
+      <c r="F170" t="s">
+        <v>523</v>
+      </c>
+      <c r="G170" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B171" t="str" cm="1">
+        <f t="array" ref="B171">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C171">
+        <v>5403</v>
+      </c>
+      <c r="D171" t="s">
+        <v>552</v>
+      </c>
+      <c r="E171">
+        <v>272</v>
+      </c>
+      <c r="F171" t="s">
+        <v>526</v>
+      </c>
+      <c r="G171" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B172" t="str" cm="1">
+        <f t="array" ref="B172">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C172">
+        <v>5403</v>
+      </c>
+      <c r="D172" t="s">
+        <v>552</v>
+      </c>
+      <c r="E172">
+        <v>186</v>
+      </c>
+      <c r="F172" t="s">
+        <v>529</v>
+      </c>
+      <c r="G172" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B173" t="str" cm="1">
+        <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C173">
+        <v>5401</v>
+      </c>
+      <c r="D173" t="s">
+        <v>554</v>
+      </c>
+      <c r="E173">
+        <v>199</v>
+      </c>
+      <c r="F173" t="s">
+        <v>532</v>
+      </c>
+      <c r="G173" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B174" t="str" cm="1">
+        <f t="array" ref="B174">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C174">
+        <v>5403</v>
+      </c>
+      <c r="D174" t="s">
+        <v>552</v>
+      </c>
+      <c r="E174">
+        <v>198</v>
+      </c>
+      <c r="F174" t="s">
+        <v>535</v>
+      </c>
+      <c r="G174" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B175" t="str" cm="1">
+        <f t="array" ref="B175">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C175">
+        <v>5402</v>
+      </c>
+      <c r="D175" t="s">
+        <v>555</v>
+      </c>
+      <c r="E175">
+        <v>210</v>
+      </c>
+      <c r="F175" t="s">
+        <v>538</v>
+      </c>
+      <c r="G175" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B176" t="str" cm="1">
+        <f t="array" ref="B176">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C176">
+        <v>5404</v>
+      </c>
+      <c r="D176" t="s">
+        <v>553</v>
+      </c>
+      <c r="E176">
+        <v>211</v>
+      </c>
+      <c r="F176" t="s">
+        <v>541</v>
+      </c>
+      <c r="G176" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B177" t="str" cm="1">
+        <f t="array" ref="B177">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C177">
+        <v>5401</v>
+      </c>
+      <c r="D177" t="s">
+        <v>554</v>
+      </c>
+      <c r="E177">
+        <v>51</v>
+      </c>
+      <c r="F177" t="s">
+        <v>544</v>
+      </c>
+      <c r="G177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B178" t="str" cm="1">
+        <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C178">
+        <v>5401</v>
+      </c>
+      <c r="D178" t="s">
+        <v>554</v>
+      </c>
+      <c r="E178">
+        <v>167</v>
+      </c>
+      <c r="F178" t="s">
+        <v>545</v>
+      </c>
+      <c r="G178" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B179" t="str" cm="1">
+        <f t="array" ref="B179">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C179">
+        <v>5401</v>
+      </c>
+      <c r="D179" t="s">
+        <v>554</v>
+      </c>
+      <c r="E179">
+        <v>230</v>
+      </c>
+      <c r="F179" t="s">
+        <v>548</v>
+      </c>
+      <c r="G179" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B180" t="str" cm="1">
+        <f t="array" ref="B180">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C180">
+        <v>5401</v>
+      </c>
+      <c r="D180" t="s">
+        <v>554</v>
+      </c>
+      <c r="E180">
+        <v>228</v>
+      </c>
+      <c r="F180" t="s">
+        <v>551</v>
+      </c>
+      <c r="G180" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B181" t="str" cm="1">
+        <f t="array" ref="B181">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C181">
+        <v>5502</v>
+      </c>
+      <c r="D181" t="s">
+        <v>566</v>
+      </c>
+      <c r="E181">
+        <v>66</v>
+      </c>
+      <c r="F181" t="s">
+        <v>567</v>
+      </c>
+      <c r="G181" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B182" t="str" cm="1">
+        <f t="array" ref="B182">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C182">
+        <v>5502</v>
+      </c>
+      <c r="D182" t="s">
+        <v>566</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
+      </c>
+      <c r="F182" t="s">
+        <v>557</v>
+      </c>
+      <c r="G182" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B183" t="str" cm="1">
+        <f t="array" ref="B183">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C183">
+        <v>5502</v>
+      </c>
+      <c r="D183" t="s">
+        <v>566</v>
+      </c>
+      <c r="E183">
+        <v>153</v>
+      </c>
+      <c r="F183" t="s">
+        <v>570</v>
+      </c>
+      <c r="G183" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B184" t="str" cm="1">
+        <f t="array" ref="B184">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C184">
+        <v>5502</v>
+      </c>
+      <c r="D184" t="s">
+        <v>566</v>
+      </c>
+      <c r="E184">
+        <v>168</v>
+      </c>
+      <c r="F184" t="s">
+        <v>573</v>
+      </c>
+      <c r="G184" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B185" t="str" cm="1">
+        <f t="array" ref="B185">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C185">
+        <v>5502</v>
+      </c>
+      <c r="D185" t="s">
+        <v>566</v>
+      </c>
+      <c r="E185">
+        <v>155</v>
+      </c>
+      <c r="F185" t="s">
+        <v>563</v>
+      </c>
+      <c r="G185" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B186" t="str" cm="1">
+        <f t="array" ref="B186">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C186">
+        <v>5503</v>
+      </c>
+      <c r="D186" t="s">
+        <v>576</v>
+      </c>
+      <c r="E186">
+        <v>83</v>
+      </c>
+      <c r="F186" t="s">
+        <v>560</v>
+      </c>
+      <c r="G186" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B187" t="str" cm="1">
+        <f t="array" ref="B187">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C187">
+        <v>5504</v>
+      </c>
+      <c r="D187" t="s">
+        <v>589</v>
+      </c>
+      <c r="E187">
+        <v>70</v>
+      </c>
+      <c r="F187" t="s">
+        <v>578</v>
+      </c>
+      <c r="G187" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B188" t="str" cm="1">
+        <f t="array" ref="B188">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C188">
+        <v>5504</v>
+      </c>
+      <c r="D188" t="s">
+        <v>589</v>
+      </c>
+      <c r="E188">
+        <v>244</v>
+      </c>
+      <c r="F188" t="s">
+        <v>581</v>
+      </c>
+      <c r="G188" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EDF372-32AB-4600-A573-6D61FBB5EDF6}">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
